--- a/gen66.xlsx
+++ b/gen66.xlsx
@@ -422,13 +422,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1866</v>
+        <v>2501</v>
       </c>
       <c r="C3">
-        <v>0.1683587574253685</v>
+        <v>0.09172258015682565</v>
       </c>
       <c r="D3">
-        <v>0.1957511693738043</v>
+        <v>0.2613151152860803</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1866</v>
+        <v>1606</v>
       </c>
       <c r="C4">
-        <v>0.1683587574253685</v>
+        <v>0.2668797572868555</v>
       </c>
       <c r="D4">
-        <v>0.07243406496763762</v>
+        <v>0.3948370345879346</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1866</v>
+        <v>1509</v>
       </c>
       <c r="C5">
-        <v>0.1683587574253685</v>
+        <v>0.227715181600373</v>
       </c>
       <c r="D5">
-        <v>0.06396954241182377</v>
+        <v>0.2232356312765292</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1866</v>
+        <v>1509</v>
       </c>
       <c r="C6">
-        <v>0.1683587574253685</v>
+        <v>0.227715181600373</v>
       </c>
       <c r="D6">
-        <v>0.1271989381492782</v>
+        <v>0.3290469991894438</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1866</v>
+        <v>1509</v>
       </c>
       <c r="C7">
-        <v>0.1683587574253685</v>
+        <v>0.227715181600373</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1652336544261644</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1936</v>
+        <v>1509</v>
       </c>
       <c r="C8">
-        <v>0.06065316838667393</v>
+        <v>0.227715181600373</v>
       </c>
       <c r="D8">
-        <v>0.04060324825986079</v>
+        <v>0.2931600998941025</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1936</v>
+        <v>1509</v>
       </c>
       <c r="C9">
-        <v>0.06065316838667393</v>
+        <v>0.227715181600373</v>
       </c>
       <c r="D9">
-        <v>0.0391918727231599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1936</v>
+        <v>1509</v>
       </c>
       <c r="C10">
-        <v>0.06065316838667393</v>
+        <v>0.227715181600373</v>
       </c>
       <c r="D10">
-        <v>0.02248600108702334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1936</v>
+        <v>1509</v>
       </c>
       <c r="C11">
-        <v>0.06065316838667393</v>
+        <v>0.227715181600373</v>
       </c>
       <c r="D11">
-        <v>0.1335921325942997</v>
+        <v>0.02427455509241026</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1936</v>
+        <v>1509</v>
       </c>
       <c r="C12">
-        <v>0.06065316838667393</v>
+        <v>0.227715181600373</v>
       </c>
       <c r="D12">
-        <v>0.01943644040470032</v>
+        <v>0.09584364305086222</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1936</v>
+        <v>1509</v>
       </c>
       <c r="C13">
-        <v>0.06065316838667393</v>
+        <v>0.227715181600373</v>
       </c>
       <c r="D13">
-        <v>0.02415772107674162</v>
+        <v>0.130158599951109</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1936</v>
+        <v>1509</v>
       </c>
       <c r="C14">
-        <v>0.06065316838667393</v>
+        <v>0.227715181600373</v>
       </c>
       <c r="D14">
-        <v>0.2692157449024392</v>
+        <v>0.08130240115888787</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1728</v>
+        <v>1509</v>
       </c>
       <c r="C15">
-        <v>0.09006536</v>
+        <v>0.227715181600373</v>
       </c>
       <c r="D15">
-        <v>0.02997607472877168</v>
+        <v>0.08130240115888787</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1728</v>
+        <v>1509</v>
       </c>
       <c r="C16">
-        <v>0.09006536</v>
+        <v>0.227715181600373</v>
       </c>
       <c r="D16">
-        <v>0.04256488490232469</v>
+        <v>0.1618969617564859</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1728</v>
+        <v>1509</v>
       </c>
       <c r="C17">
-        <v>0.09006536</v>
+        <v>0.227715181600373</v>
       </c>
       <c r="D17">
-        <v>0.07766750402613037</v>
+        <v>0.2001685995740823</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1728</v>
+        <v>1509</v>
       </c>
       <c r="C18">
-        <v>0.09006536</v>
+        <v>0.227715181600373</v>
       </c>
       <c r="D18">
-        <v>0.09752840350599298</v>
+        <v>0.1016296970286286</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1728</v>
+        <v>1719</v>
       </c>
       <c r="C19">
-        <v>0.09006536</v>
+        <v>0.1768143972868555</v>
       </c>
       <c r="D19">
-        <v>0.04011657654404559</v>
+        <v>0.2383751799209762</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1728</v>
+        <v>1509</v>
       </c>
       <c r="C20">
-        <v>0.09006536</v>
+        <v>0.227715181600373</v>
       </c>
       <c r="D20">
-        <v>0.06651685667571093</v>
+        <v>0.2417696531247236</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1728</v>
+        <v>1509</v>
       </c>
       <c r="C21">
-        <v>0.09006536</v>
+        <v>0.227715181600373</v>
       </c>
       <c r="D21">
-        <v>0.05461590596335607</v>
+        <v>0.2437762848417326</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1728</v>
+        <v>1509</v>
       </c>
       <c r="C22">
-        <v>0.09006536</v>
+        <v>0.227715181600373</v>
       </c>
       <c r="D22">
-        <v>0.07766750402613037</v>
+        <v>0.04057054320183257</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1728</v>
+        <v>1719</v>
       </c>
       <c r="C23">
-        <v>0.09006536</v>
+        <v>0.1768143972868555</v>
       </c>
       <c r="D23">
-        <v>0.09091304379503132</v>
+        <v>0.08386581469648563</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1728</v>
+        <v>1719</v>
       </c>
       <c r="C24">
-        <v>0.09006536</v>
+        <v>0.1768143972868555</v>
       </c>
       <c r="D24">
-        <v>0.04361602799528582</v>
+        <v>0.2073645543577834</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1728</v>
+        <v>1719</v>
       </c>
       <c r="C25">
-        <v>0.09006536</v>
+        <v>0.1768143972868555</v>
       </c>
       <c r="D25">
-        <v>0.06770252629580019</v>
+        <v>0.09722222222222222</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1728</v>
+        <v>1721</v>
       </c>
       <c r="C26">
         <v>0.09006536</v>
       </c>
       <c r="D26">
-        <v>0.02747930136029517</v>
+        <v>0.155425219941349</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1728</v>
+        <v>1721</v>
       </c>
       <c r="C27">
         <v>0.09006536</v>
       </c>
       <c r="D27">
-        <v>0.02997607472877168</v>
+        <v>0.1786626642082308</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1728</v>
+        <v>1721</v>
       </c>
       <c r="C28">
         <v>0.09006536</v>
       </c>
       <c r="D28">
-        <v>0.04451873099040921</v>
+        <v>0.06450897500347157</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1531</v>
+        <v>1721</v>
       </c>
       <c r="C29">
         <v>0.09006536</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>0.06450897500347157</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,7 +800,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C30">
         <v>0.09006536</v>
@@ -814,7 +814,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C31">
         <v>0.09006536</v>
@@ -828,7 +828,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C32">
         <v>0.09006536</v>
@@ -842,7 +842,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C33">
         <v>0.09006536</v>
@@ -856,7 +856,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C34">
         <v>0.09006536</v>
@@ -870,7 +870,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C35">
         <v>0.09006536</v>
@@ -884,7 +884,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C36">
         <v>0.09006536</v>
@@ -898,7 +898,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C37">
         <v>0.09006536</v>
@@ -912,7 +912,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C38">
         <v>0.09006536</v>
@@ -926,7 +926,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C39">
         <v>0.09006536</v>
@@ -940,7 +940,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C40">
         <v>0.09006536</v>
@@ -954,7 +954,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C41">
         <v>0.09006536</v>
@@ -968,13 +968,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C42">
         <v>0.09006536</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>0.05535605215823725</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,7 +982,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C43">
         <v>0.09006536</v>
@@ -996,7 +996,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C44">
         <v>0.09006536</v>
@@ -1010,13 +1010,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C45">
         <v>0.09006536</v>
       </c>
       <c r="D45">
-        <v>0.03383996040076331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C46">
         <v>0.09006536</v>
       </c>
       <c r="D46">
-        <v>0.1458496677136209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C47">
         <v>0.09006536</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>0.04476530396954464</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,7 +1052,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C48">
         <v>0.09006536</v>
@@ -1066,7 +1066,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C49">
         <v>0.09006536</v>
@@ -1080,7 +1080,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C50">
         <v>0.09006536</v>
@@ -1094,13 +1094,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C51">
         <v>0.09006536</v>
       </c>
       <c r="D51">
-        <v>0.08160984727566578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C52">
         <v>0.09006536</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.08160984727566578</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,7 +1122,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C53">
         <v>0.09006536</v>
@@ -1136,13 +1136,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C54">
         <v>0.09006536</v>
       </c>
       <c r="D54">
-        <v>0.07405400196384138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,7 +1150,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C55">
         <v>0.09006536</v>
@@ -1164,13 +1164,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C56">
         <v>0.09006536</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>0.04801966640154662</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,7 +1178,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C57">
         <v>0.09006536</v>
@@ -1192,7 +1192,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C58">
         <v>0.09006536</v>
@@ -1206,13 +1206,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C59">
         <v>0.09006536</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>0.0713103770231157</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,7 +1220,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C60">
         <v>0.09006536</v>
@@ -1234,7 +1234,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C61">
         <v>0.09006536</v>
@@ -1248,7 +1248,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C62">
         <v>0.09006536</v>
@@ -1262,7 +1262,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C63">
         <v>0.09006536</v>
@@ -1276,7 +1276,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C64">
         <v>0.09006536</v>
@@ -1290,7 +1290,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C65">
         <v>0.09006536</v>
@@ -1304,13 +1304,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C66">
         <v>0.09006536</v>
       </c>
       <c r="D66">
-        <v>0.04743924585355315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C67">
         <v>0.09006536</v>
       </c>
       <c r="D67">
-        <v>0.04436923446613564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,7 +1332,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C68">
         <v>0.09006536</v>
@@ -1346,7 +1346,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C69">
         <v>0.09006536</v>
@@ -1360,7 +1360,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C70">
         <v>0.09006536</v>
@@ -1374,7 +1374,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C71">
         <v>0.09006536</v>
@@ -1388,7 +1388,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C72">
         <v>0.09006536</v>
@@ -1402,7 +1402,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C73">
         <v>0.09006536</v>
@@ -1416,7 +1416,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C74">
         <v>0.09006536</v>
@@ -1430,13 +1430,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C75">
         <v>0.09006536</v>
       </c>
       <c r="D75">
-        <v>0.08317250196998691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,7 +1444,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C76">
         <v>0.09006536</v>
@@ -1458,7 +1458,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C77">
         <v>0.09006536</v>
@@ -1472,7 +1472,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C78">
         <v>0.09006536</v>
@@ -1486,7 +1486,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C79">
         <v>0.09006536</v>
@@ -1500,7 +1500,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C80">
         <v>0.09006536</v>
@@ -1514,13 +1514,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C81">
         <v>0.09006536</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>0.06837608326848882</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C82">
         <v>0.09006536</v>
       </c>
       <c r="D82">
-        <v>0.07943274469015602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,7 +1542,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C83">
         <v>0.09006536</v>
@@ -1556,7 +1556,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C84">
         <v>0.09006536</v>
@@ -1570,7 +1570,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C85">
         <v>0.09006536</v>
@@ -1584,7 +1584,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C86">
         <v>0.09006536</v>
@@ -1598,13 +1598,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C87">
         <v>0.09006536</v>
       </c>
       <c r="D87">
-        <v>0.02747930136029517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,7 +1612,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C88">
         <v>0.09006536</v>
@@ -1626,7 +1626,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C89">
         <v>0.09006536</v>
@@ -1640,13 +1640,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C90">
         <v>0.09006536</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>0.06203310826423775</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1654,13 +1654,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C91">
         <v>0.09006536</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>0.06224761680320567</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1668,7 +1668,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C92">
         <v>0.09006536</v>
@@ -1682,13 +1682,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C93">
         <v>0.09006536</v>
       </c>
       <c r="D93">
-        <v>0.1343030543654618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1696,7 +1696,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C94">
         <v>0.09006536</v>
@@ -1710,7 +1710,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C95">
         <v>0.09006536</v>
@@ -1724,7 +1724,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C96">
         <v>0.09006536</v>
@@ -1738,7 +1738,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C97">
         <v>0.09006536</v>
@@ -1752,7 +1752,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C98">
         <v>0.09006536</v>
@@ -1766,7 +1766,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C99">
         <v>0.09006536</v>
@@ -1780,7 +1780,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C100">
         <v>0.09006536</v>
@@ -1794,7 +1794,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C101">
         <v>0.09006536</v>
@@ -1808,7 +1808,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C102">
         <v>0.09006536</v>
